--- a/indiviproperty.xlsx
+++ b/indiviproperty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HC-admin-0007\Desktop\案件フォルダ\TRMC-6541\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A53F05-60C1-4917-B9FD-BEC2E8F6D955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60282183-00ED-429D-9A6E-0E16B5303C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4470" yWindow="1185" windowWidth="23325" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,6 +446,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>164476</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>29908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FA7543-4156-766D-4CF9-F194FE917C1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5000625"/>
+          <a:ext cx="18281026" cy="9554908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>629448</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>162162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B04038-B4F0-FC57-ED4A-783AF25E41AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="15611475"/>
+          <a:ext cx="5715798" cy="1695687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>229388</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179158BB-9914-FD78-E762-DD9F567B1D70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="15592425"/>
+          <a:ext cx="5649113" cy="1629002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1885,5 +2022,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/indiviproperty.xlsx
+++ b/indiviproperty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HC-admin-0007\Desktop\案件フォルダ\TRMC-6541\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60282183-00ED-429D-9A6E-0E16B5303C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED11CD73-AFBB-4A93-93BA-9FDAB383A1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4470" yWindow="1185" windowWidth="23325" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,22 +453,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>164476</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>29908</xdr:rowOff>
+      <xdr:colOff>640721</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>10900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FA7543-4156-766D-4CF9-F194FE917C1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08CA2E11-5DC5-99FE-49BB-850896530010}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -484,8 +484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5000625"/>
-          <a:ext cx="18281026" cy="9554908"/>
+          <a:off x="514350" y="11353800"/>
+          <a:ext cx="18242921" cy="9850225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,6 +574,50 @@
         <a:xfrm>
           <a:off x="1466850" y="15592425"/>
           <a:ext cx="5649113" cy="1629002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19838</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>229520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5ED0AA8-4A73-DFAA-C90B-FBA0CAAFCA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="21736050"/>
+          <a:ext cx="5649113" cy="6592220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/indiviproperty.xlsx
+++ b/indiviproperty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HC-admin-0007\Desktop\案件フォルダ\TRMC-6541\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED11CD73-AFBB-4A93-93BA-9FDAB383A1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC8D6F-69D7-46BB-9F0C-5168AD1792C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1185" windowWidth="23325" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/indiviproperty.xlsx
+++ b/indiviproperty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HC-admin-0007\Desktop\案件フォルダ\TRMC-6541\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC8D6F-69D7-46BB-9F0C-5168AD1792C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B111A455-8AB4-4484-BA23-8057C83E848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,6 +618,50 @@
         <a:xfrm>
           <a:off x="571500" y="21736050"/>
           <a:ext cx="5649113" cy="6592220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>164476</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>77573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCB7D13-60B1-4886-6542-7A582AB6F3E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="18281026" cy="9840698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/indiviproperty.xlsx
+++ b/indiviproperty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HC-admin-0007\Desktop\案件フォルダ\TRMC-6541\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B111A455-8AB4-4484-BA23-8057C83E848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEC0AD6-FC99-4102-807E-A6FDAEA12CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,138 +496,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>629448</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>162162</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B04038-B4F0-FC57-ED4A-783AF25E41AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7543800" y="15611475"/>
-          <a:ext cx="5715798" cy="1695687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>229388</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>76427</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179158BB-9914-FD78-E762-DD9F567B1D70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1466850" y="15592425"/>
-          <a:ext cx="5649113" cy="1629002"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19838</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>229520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5ED0AA8-4A73-DFAA-C90B-FBA0CAAFCA92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="21736050"/>
-          <a:ext cx="5649113" cy="6592220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -653,7 +521,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -662,6 +530,94 @@
         <a:xfrm>
           <a:off x="0" y="3810000"/>
           <a:ext cx="18281026" cy="9840698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>591345</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30301931-5946-0516-5EE3-768A40B6160A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="22336125"/>
+          <a:ext cx="5696745" cy="1714739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115096</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>172375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C43287C-BA2D-1413-6804-36D32F83FEFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21640800"/>
+          <a:ext cx="5706271" cy="6630325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -938,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/indiviproperty.xlsx
+++ b/indiviproperty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HC-admin-0007\Desktop\案件フォルダ\TRMC-6541\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEC0AD6-FC99-4102-807E-A6FDAEA12CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8A3D15-4C18-40A8-8CD1-68319AA3C78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,6 +618,94 @@
         <a:xfrm>
           <a:off x="609600" y="21640800"/>
           <a:ext cx="5706271" cy="6630325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>412112</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>134718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876F226D-183A-4838-238F-4DE95D9DB40E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="29146500"/>
+          <a:ext cx="18176237" cy="9802593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>229380</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>114619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C967D20-715C-042D-7410-F38A1B04D83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="41405175"/>
+          <a:ext cx="5591955" cy="2286319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
